--- a/WebsiteUserStreaming.xlsx
+++ b/WebsiteUserStreaming.xlsx
@@ -45,7 +45,7 @@
     <t>event</t>
   </si>
   <si>
-    <t>null</t>
+    <t>zero</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
